--- a/ExecutionLog.xlsx
+++ b/ExecutionLog.xlsx
@@ -151,7 +151,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -162,13 +162,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="n" s="0">
         <v>5.0</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>10.0</v>
-      </c>
       <c r="C3" t="n" s="0">
-        <v>22.0</v>
+        <v>35.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -179,13 +179,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>22.0</v>
+        <v>35.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>37.0</v>
+        <v>43.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
@@ -199,10 +199,10 @@
         <v>3.0</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>37.0</v>
+        <v>43.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>57.0</v>
+        <v>83.0</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -213,13 +213,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>57.0</v>
+        <v>83.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>82.0</v>
+        <v>93.0</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>0.0</v>
@@ -230,13 +230,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>82.0</v>
+        <v>93.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>100.0</v>
+        <v>111.0</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>0.0</v>
@@ -250,10 +250,10 @@
         <v>8.0</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>100.0</v>
+        <v>111.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>122.0</v>
+        <v>133.0</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -264,13 +264,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>122.0</v>
+        <v>133.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>152.0</v>
+        <v>158.0</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -281,13 +281,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>152.0</v>
+        <v>158.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>166.0</v>
+        <v>193.0</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>0.0</v>
@@ -298,13 +298,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>166.0</v>
+        <v>193.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>182.0</v>
+        <v>205.0</v>
       </c>
       <c r="D11" t="n" s="0">
         <v>0.0</v>
@@ -318,10 +318,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>182.0</v>
+        <v>205.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>210.0</v>
+        <v>250.0</v>
       </c>
       <c r="D12" t="n" s="0">
         <v>0.0</v>
@@ -335,10 +335,10 @@
         <v>14.0</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>210.0</v>
+        <v>250.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>221.0</v>
+        <v>260.0</v>
       </c>
       <c r="D13" t="n" s="0">
         <v>0.0</v>
@@ -349,13 +349,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>221.0</v>
+        <v>260.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>234.0</v>
+        <v>275.0</v>
       </c>
       <c r="D14" t="n" s="0">
         <v>0.0</v>
@@ -366,13 +366,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n" s="0">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>234.0</v>
+        <v>275.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>253.0</v>
+        <v>325.0</v>
       </c>
       <c r="D15" t="n" s="0">
         <v>0.0</v>
@@ -386,10 +386,10 @@
         <v>16.0</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>253.0</v>
+        <v>325.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>274.0</v>
+        <v>333.0</v>
       </c>
       <c r="D16" t="n" s="0">
         <v>0.0</v>
@@ -400,13 +400,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>274.0</v>
+        <v>333.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>298.0</v>
+        <v>353.0</v>
       </c>
       <c r="D17" t="n" s="0">
         <v>0.0</v>
@@ -417,13 +417,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>298.0</v>
+        <v>353.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>315.0</v>
+        <v>359.0</v>
       </c>
       <c r="D18" t="n" s="0">
         <v>0.0</v>
@@ -434,13 +434,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n" s="0">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>315.0</v>
+        <v>359.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>338.0</v>
+        <v>383.0</v>
       </c>
       <c r="D19" t="n" s="0">
         <v>0.0</v>
@@ -451,13 +451,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n" s="0">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>338.0</v>
+        <v>383.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>364.0</v>
+        <v>411.0</v>
       </c>
       <c r="D20" t="n" s="0">
         <v>0.0</v>
@@ -468,13 +468,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="0">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>364.0</v>
+        <v>411.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>391.0</v>
+        <v>425.0</v>
       </c>
       <c r="D21" t="n" s="0">
         <v>0.0</v>
@@ -485,13 +485,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n" s="0">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>391.0</v>
+        <v>425.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>403.0</v>
+        <v>441.0</v>
       </c>
       <c r="D22" t="n" s="0">
         <v>0.0</v>
@@ -502,13 +502,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>403.0</v>
+        <v>441.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>423.0</v>
+        <v>459.0</v>
       </c>
       <c r="D23" t="n" s="0">
         <v>0.0</v>
@@ -519,13 +519,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n" s="0">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>423.0</v>
+        <v>459.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>448.0</v>
+        <v>491.0</v>
       </c>
       <c r="D24" t="n" s="0">
         <v>0.0</v>
@@ -536,13 +536,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n" s="0">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>448.0</v>
+        <v>491.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>477.0</v>
+        <v>503.0</v>
       </c>
       <c r="D25" t="n" s="0">
         <v>0.0</v>
@@ -553,13 +553,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>477.0</v>
+        <v>503.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>491.0</v>
+        <v>529.0</v>
       </c>
       <c r="D26" t="n" s="0">
         <v>0.0</v>

--- a/ExecutionLog.xlsx
+++ b/ExecutionLog.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="8">
   <si>
     <t>Job ID</t>
   </si>
@@ -29,10 +29,13 @@
     <t>State</t>
   </si>
   <si>
+    <t>READY</t>
+  </si>
+  <si>
     <t>TERMINATED</t>
   </si>
   <si>
-    <t>Algorithm Used: SJF</t>
+    <t>Algorithm Used: RoundRobin</t>
   </si>
 </sst>
 </file>
@@ -113,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -151,10 +154,10 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>5</v>
@@ -165,13 +168,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>35.0</v>
+        <v>16.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>5</v>
@@ -179,16 +182,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>35.0</v>
+        <v>16.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>43.0</v>
+        <v>24.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>5</v>
@@ -196,16 +199,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>43.0</v>
+        <v>24.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>83.0</v>
+        <v>32.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>5</v>
@@ -213,16 +216,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>83.0</v>
+        <v>32.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>93.0</v>
+        <v>40.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>5</v>
@@ -230,50 +233,50 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>93.0</v>
+        <v>40.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>111.0</v>
+        <v>42.0</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>111.0</v>
+        <v>42.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>133.0</v>
+        <v>49.0</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>133.0</v>
+        <v>49.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>158.0</v>
+        <v>57.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>5</v>
@@ -281,16 +284,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>57.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>65.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
         <v>9.0</v>
-      </c>
-      <c r="B10" t="n" s="0">
-        <v>158.0</v>
-      </c>
-      <c r="C10" t="n" s="0">
-        <v>193.0</v>
-      </c>
-      <c r="D10" t="n" s="0">
-        <v>0.0</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>5</v>
@@ -298,33 +301,33 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>193.0</v>
+        <v>65.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>205.0</v>
+        <v>69.0</v>
       </c>
       <c r="D11" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>205.0</v>
+        <v>69.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>250.0</v>
+        <v>77.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>5</v>
@@ -332,16 +335,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>250.0</v>
+        <v>77.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>260.0</v>
+        <v>85.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>5</v>
@@ -349,16 +352,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>260.0</v>
+        <v>85.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>275.0</v>
+        <v>93.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>5</v>
@@ -366,33 +369,33 @@
     </row>
     <row r="15">
       <c r="A15" t="n" s="0">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>275.0</v>
+        <v>93.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>325.0</v>
+        <v>97.0</v>
       </c>
       <c r="D15" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>325.0</v>
+        <v>97.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>333.0</v>
+        <v>105.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>5</v>
@@ -400,16 +403,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>333.0</v>
+        <v>105.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>353.0</v>
+        <v>113.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="E17" t="s" s="0">
         <v>5</v>
@@ -417,16 +420,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n" s="0">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>353.0</v>
+        <v>113.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>359.0</v>
+        <v>121.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="E18" t="s" s="0">
         <v>5</v>
@@ -434,16 +437,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n" s="0">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>359.0</v>
+        <v>121.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>383.0</v>
+        <v>129.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>5</v>
@@ -451,16 +454,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n" s="0">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>383.0</v>
+        <v>129.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>411.0</v>
+        <v>137.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>5</v>
@@ -468,16 +471,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="0">
-        <v>22.0</v>
+        <v>10.0</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>411.0</v>
+        <v>137.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>425.0</v>
+        <v>145.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E21" t="s" s="0">
         <v>5</v>
@@ -485,50 +488,50 @@
     </row>
     <row r="22">
       <c r="A22" t="n" s="0">
-        <v>20.0</v>
+        <v>4.0</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>425.0</v>
+        <v>145.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>441.0</v>
+        <v>146.0</v>
       </c>
       <c r="D22" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n" s="0">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>441.0</v>
+        <v>146.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>459.0</v>
+        <v>154.0</v>
       </c>
       <c r="D23" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n" s="0">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>459.0</v>
+        <v>154.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>491.0</v>
+        <v>162.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E24" t="s" s="0">
         <v>5</v>
@@ -536,41 +539,857 @@
     </row>
     <row r="25">
       <c r="A25" t="n" s="0">
-        <v>25.0</v>
+        <v>7.0</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>491.0</v>
+        <v>162.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>503.0</v>
+        <v>164.0</v>
       </c>
       <c r="D25" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B26" t="n" s="0">
+        <v>164.0</v>
+      </c>
+      <c r="C26" t="n" s="0">
+        <v>170.0</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B27" t="n" s="0">
+        <v>170.0</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>176.0</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>176.0</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>184.0</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>184.0</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>192.0</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>192.0</v>
+      </c>
+      <c r="C30" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C31" t="n" s="0">
+        <v>208.0</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>208.0</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>216.0</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>216.0</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>222.0</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>222.0</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="D34" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>238.0</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>238.0</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>246.0</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>246.0</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>254.0</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>254.0</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>262.0</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>262.0</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>270.0</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>270.0</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>278.0</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B41" t="n" s="0">
+        <v>278.0</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>286.0</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>286.0</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>289.0</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B43" t="n" s="0">
+        <v>289.0</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>294.0</v>
+      </c>
+      <c r="D43" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>294.0</v>
+      </c>
+      <c r="C44" t="n" s="0">
+        <v>302.0</v>
+      </c>
+      <c r="D44" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="B45" t="n" s="0">
+        <v>302.0</v>
+      </c>
+      <c r="C45" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="D45" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="B46" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="C46" t="n" s="0">
+        <v>318.0</v>
+      </c>
+      <c r="D46" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="B47" t="n" s="0">
+        <v>318.0</v>
+      </c>
+      <c r="C47" t="n" s="0">
+        <v>326.0</v>
+      </c>
+      <c r="D47" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="0">
         <v>24.0</v>
       </c>
-      <c r="B26" t="n" s="0">
-        <v>503.0</v>
-      </c>
-      <c r="C26" t="n" s="0">
-        <v>529.0</v>
-      </c>
-      <c r="D26" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E26" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="6">
-        <v>6</v>
+      <c r="B48" t="n" s="0">
+        <v>326.0</v>
+      </c>
+      <c r="C48" t="n" s="0">
+        <v>334.0</v>
+      </c>
+      <c r="D48" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B49" t="n" s="0">
+        <v>334.0</v>
+      </c>
+      <c r="C49" t="n" s="0">
+        <v>342.0</v>
+      </c>
+      <c r="D49" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B50" t="n" s="0">
+        <v>342.0</v>
+      </c>
+      <c r="C50" t="n" s="0">
+        <v>350.0</v>
+      </c>
+      <c r="D50" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="B51" t="n" s="0">
+        <v>350.0</v>
+      </c>
+      <c r="C51" t="n" s="0">
+        <v>358.0</v>
+      </c>
+      <c r="D51" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="B52" t="n" s="0">
+        <v>358.0</v>
+      </c>
+      <c r="C52" t="n" s="0">
+        <v>366.0</v>
+      </c>
+      <c r="D52" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B53" t="n" s="0">
+        <v>366.0</v>
+      </c>
+      <c r="C53" t="n" s="0">
+        <v>374.0</v>
+      </c>
+      <c r="D53" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B54" t="n" s="0">
+        <v>374.0</v>
+      </c>
+      <c r="C54" t="n" s="0">
+        <v>382.0</v>
+      </c>
+      <c r="D54" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B55" t="n" s="0">
+        <v>382.0</v>
+      </c>
+      <c r="C55" t="n" s="0">
+        <v>385.0</v>
+      </c>
+      <c r="D55" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="B56" t="n" s="0">
+        <v>385.0</v>
+      </c>
+      <c r="C56" t="n" s="0">
+        <v>393.0</v>
+      </c>
+      <c r="D56" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B57" t="n" s="0">
+        <v>393.0</v>
+      </c>
+      <c r="C57" t="n" s="0">
+        <v>398.0</v>
+      </c>
+      <c r="D57" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="B58" t="n" s="0">
+        <v>398.0</v>
+      </c>
+      <c r="C58" t="n" s="0">
+        <v>406.0</v>
+      </c>
+      <c r="D58" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="B59" t="n" s="0">
+        <v>406.0</v>
+      </c>
+      <c r="C59" t="n" s="0">
+        <v>414.0</v>
+      </c>
+      <c r="D59" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="B60" t="n" s="0">
+        <v>414.0</v>
+      </c>
+      <c r="C60" t="n" s="0">
+        <v>422.0</v>
+      </c>
+      <c r="D60" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="B61" t="n" s="0">
+        <v>422.0</v>
+      </c>
+      <c r="C61" t="n" s="0">
+        <v>426.0</v>
+      </c>
+      <c r="D61" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B62" t="n" s="0">
+        <v>426.0</v>
+      </c>
+      <c r="C62" t="n" s="0">
+        <v>434.0</v>
+      </c>
+      <c r="D62" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B63" t="n" s="0">
+        <v>434.0</v>
+      </c>
+      <c r="C63" t="n" s="0">
+        <v>442.0</v>
+      </c>
+      <c r="D63" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="B64" t="n" s="0">
+        <v>442.0</v>
+      </c>
+      <c r="C64" t="n" s="0">
+        <v>443.0</v>
+      </c>
+      <c r="D64" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="B65" t="n" s="0">
+        <v>443.0</v>
+      </c>
+      <c r="C65" t="n" s="0">
+        <v>450.0</v>
+      </c>
+      <c r="D65" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B66" t="n" s="0">
+        <v>450.0</v>
+      </c>
+      <c r="C66" t="n" s="0">
+        <v>454.0</v>
+      </c>
+      <c r="D66" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="B67" t="n" s="0">
+        <v>454.0</v>
+      </c>
+      <c r="C67" t="n" s="0">
+        <v>460.0</v>
+      </c>
+      <c r="D67" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="B68" t="n" s="0">
+        <v>460.0</v>
+      </c>
+      <c r="C68" t="n" s="0">
+        <v>468.0</v>
+      </c>
+      <c r="D68" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="B69" t="n" s="0">
+        <v>468.0</v>
+      </c>
+      <c r="C69" t="n" s="0">
+        <v>472.0</v>
+      </c>
+      <c r="D69" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="B70" t="n" s="0">
+        <v>472.0</v>
+      </c>
+      <c r="C70" t="n" s="0">
+        <v>480.0</v>
+      </c>
+      <c r="D70" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B71" t="n" s="0">
+        <v>480.0</v>
+      </c>
+      <c r="C71" t="n" s="0">
+        <v>483.0</v>
+      </c>
+      <c r="D71" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B72" t="n" s="0">
+        <v>483.0</v>
+      </c>
+      <c r="C72" t="n" s="0">
+        <v>485.0</v>
+      </c>
+      <c r="D72" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="B73" t="n" s="0">
+        <v>485.0</v>
+      </c>
+      <c r="C73" t="n" s="0">
+        <v>490.0</v>
+      </c>
+      <c r="D73" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="B74" t="n" s="0">
+        <v>490.0</v>
+      </c>
+      <c r="C74" t="n" s="0">
+        <v>491.0</v>
+      </c>
+      <c r="D74" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="6">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
